--- a/excel2mysql/excels/question.xlsx
+++ b/excel2mysql/excels/question.xlsx
@@ -19,36 +19,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(10) unsigned|PRI|auto_increment</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>char(10)||</t>
+  </si>
+  <si>
     <t>类型名</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
     <t>contents</t>
   </si>
   <si>
+    <t>text||</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
     <t>sort_id</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>int(255)||</t>
   </si>
   <si>
     <t>状态默认0</t>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -544,128 +562,128 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -679,16 +697,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -702,16 +720,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -725,16 +743,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -748,24 +766,47 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
